--- a/nips2018_rl.xlsx
+++ b/nips2018_rl.xlsx
@@ -628,7 +628,7 @@
     <col min="3" max="3" width="79.5703125" customWidth="1"/>
     <col min="4" max="4" width="76.140625" customWidth="1"/>
     <col min="5" max="5" width="84.140625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
